--- a/Gemini/metrics-scenario-2/metrics_2_report2.xlsx
+++ b/Gemini/metrics-scenario-2/metrics_2_report2.xlsx
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" t="n">
         <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E10" t="n">
         <v>70</v>
@@ -753,13 +753,13 @@
         <v>79</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>0.2574257425742574</v>
+        <v>0.2745098039215686</v>
       </c>
       <c r="H10" s="2" t="n">
         <v>0.1139240506329114</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.8354430379746836</v>
+        <v>0.8227848101265823</v>
       </c>
     </row>
   </sheetData>
@@ -800,13 +800,13 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>0.2503082621638443</v>
+        <v>0.2522064912024344</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>0.05184979001314532</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>0.7616334156728796</v>
+        <v>0.7602269459119795</v>
       </c>
     </row>
   </sheetData>
@@ -847,13 +847,13 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>0.2760383669757846</v>
+        <v>0.2845803976494402</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>0.08690127467526988</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>0.7721518987341772</v>
+        <v>0.7658227848101266</v>
       </c>
     </row>
   </sheetData>
